--- a/Assets/ExcelTest/Character.xlsx
+++ b/Assets/ExcelTest/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>属性id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,19 +50,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>属性类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大能量值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,38 +145,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>动作最大影响目标数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围大小</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击目标类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否循环</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用距离</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>interruptEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,10 +167,6 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
@@ -229,10 +177,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>动作识别名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attack_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,10 +194,6 @@
   </si>
   <si>
     <t>animatorStateName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画状态机中对应的状态名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -395,18 +335,6 @@
   </si>
   <si>
     <t>attack_d1,attack_2,attack_3,attack_4,attack_5,attack_d2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被打断阈值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接续动作的起点时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可接续动作的终点时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -547,37 +475,88 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>角色形象</t>
+  </si>
+  <si>
+    <t>待机动作参数</t>
+  </si>
+  <si>
+    <t>死亡动作参数</t>
+  </si>
+  <si>
+    <t>向前走动作参数</t>
+  </si>
+  <si>
+    <t>向前跑动作参数</t>
+  </si>
+  <si>
+    <t>战斗行为列表</t>
+  </si>
+  <si>
+    <t>动作识别名</t>
+  </si>
+  <si>
+    <t>动作名</t>
+  </si>
+  <si>
+    <t>动作类型</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>使用距离</t>
+  </si>
+  <si>
+    <t>是否循环</t>
+  </si>
+  <si>
+    <t>攻击目标类型</t>
+  </si>
+  <si>
+    <t>攻击范围类型</t>
+  </si>
+  <si>
+    <t>范围大小</t>
+  </si>
+  <si>
+    <t>动作最大影响目标数</t>
+  </si>
+  <si>
+    <t>被打断阈值</t>
+  </si>
+  <si>
+    <t>可接续动作的起点时间</t>
+  </si>
+  <si>
+    <t>可接续动作的终点时间</t>
+  </si>
+  <si>
+    <t>动画状态机中对应的状态名</t>
+  </si>
+  <si>
     <t>时间轴事件列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>帧事件列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>打断事件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>角色形象</t>
-  </si>
-  <si>
-    <t>待机动作参数</t>
-  </si>
-  <si>
-    <t>死亡动作参数</t>
-  </si>
-  <si>
-    <t>向前走动作参数</t>
-  </si>
-  <si>
-    <t>向前跑动作参数</t>
-  </si>
-  <si>
-    <t>战斗行为列表</t>
+  </si>
+  <si>
+    <t>属性id</t>
+  </si>
+  <si>
+    <t>属性类型</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>最大能量值</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1273,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:Q13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A2:Q13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A3:Q13"/>
   <tableColumns count="17">
     <tableColumn id="1" name="idName" dataDxfId="22"/>
     <tableColumn id="2" name="name" dataDxfId="21"/>
@@ -1320,8 +1299,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A2:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A3:D4"/>
   <tableColumns count="4">
     <tableColumn id="2" name="propertyID" dataDxfId="3"/>
     <tableColumn id="1" name="propertyType" dataDxfId="2"/>
@@ -1621,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1647,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
@@ -1670,31 +1649,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1705,25 +1684,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -1731,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="14">
         <v>2</v>
@@ -1740,27 +1719,27 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C5" s="23">
         <v>3</v>
@@ -1769,19 +1748,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1797,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1825,170 +1804,168 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="O1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="12" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="H3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>116</v>
+      <c r="O3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="10">
         <v>1</v>
       </c>
@@ -2023,18 +2000,18 @@
         <v>1</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2070,18 +2047,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -2117,20 +2094,20 @@
         <v>1</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -2166,20 +2143,20 @@
         <v>1</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -2215,20 +2192,20 @@
         <v>1</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -2264,20 +2241,20 @@
         <v>1</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -2313,18 +2290,18 @@
         <v>0.8</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2360,18 +2337,18 @@
         <v>0.8</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -2407,18 +2384,18 @@
         <v>0.8</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2454,10 +2431,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2475,7 +2452,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2489,44 +2466,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2540,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelTest/Character.xlsx
+++ b/Assets/ExcelTest/Character.xlsx
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,9 +2109,7 @@
       <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="4">
         <v>0.5</v>
       </c>

--- a/Assets/ExcelTest/Character.xlsx
+++ b/Assets/ExcelTest/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="2" r:id="rId1"/>
@@ -1600,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1776,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2109,9 @@
       <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="4">
         <v>0.5</v>
       </c>

--- a/Assets/ExcelTest/Character.xlsx
+++ b/Assets/ExcelTest/Character.xlsx
@@ -11,12 +11,12 @@
     <sheet name="ActionData" sheetId="4" r:id="rId2"/>
     <sheet name="PropertyData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -557,6 +557,10 @@
   </si>
   <si>
     <t>最大能量值</t>
+  </si>
+  <si>
+    <t>*string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1601,7 +1605,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1766,8 +1770,9 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Assets/ExcelTest/Character.xlsx
+++ b/Assets/ExcelTest/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="2" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,10 +283,6 @@
   </si>
   <si>
     <t>0.35:NormalAttack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25:NormalAttack;0.47:NormalAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,10 +299,6 @@
       </rPr>
       <t>.26:NormalAttack</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11:NormalAttack;0.23:NormalAttack;0.33:NormalAttack,0.44:NormalAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -561,6 +549,16 @@
   <si>
     <t>*string</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25:NormalAttack,0.47:NormalAttack</t>
+  </si>
+  <si>
+    <t>0.11:NormalAttack,0.23:NormalAttack,0.33:NormalAttack,0.44:NormalAttack</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1636,27 +1634,27 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1665,19 +1663,19 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1694,19 +1692,19 @@
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -1723,27 +1721,27 @@
         <v>2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23">
         <v>3</v>
@@ -1752,19 +1750,19 @@
         <v>2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1781,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1809,13 +1807,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>31</v>
@@ -1842,80 +1840,80 @@
         <v>27</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>26</v>
@@ -1948,13 +1946,13 @@
         <v>18</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="20" t="s">
         <v>35</v>
@@ -1968,7 +1966,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="10">
@@ -2005,18 +2003,18 @@
         <v>1</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -2052,18 +2050,18 @@
         <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -2099,20 +2097,20 @@
         <v>1</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -2148,20 +2146,20 @@
         <v>1</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -2197,20 +2195,20 @@
         <v>1</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -2246,20 +2244,20 @@
         <v>1</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -2295,18 +2293,18 @@
         <v>0.8</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2342,18 +2340,18 @@
         <v>0.8</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -2389,18 +2387,18 @@
         <v>0.8</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -2436,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2485,16 +2483,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
